--- a/aatrox data.xlsx
+++ b/aatrox data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\GitHub\Data_Aatrox_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086BBE4C-2EDA-4CF5-B85A-FDB31B6E256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FA362-D982-4C39-B793-F80130573FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14653" yWindow="0" windowWidth="14930" windowHeight="16681" xr2:uid="{754E3952-33D1-43D3-9598-BAD42DD8C088}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16796" firstSheet="1" activeTab="2" xr2:uid="{754E3952-33D1-43D3-9598-BAD42DD8C088}"/>
   </bookViews>
   <sheets>
     <sheet name="Norms gold + SUMS RIFT" sheetId="1" r:id="rId1"/>
     <sheet name="Pro Play from all pro comps" sheetId="2" r:id="rId2"/>
+    <sheet name="Best LCK aatrox players per yea" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -490,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A08327-7F26-4F6E-86B3-7B797D7B1E2B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -886,4 +887,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C50141B-807F-4C8A-8970-D2F92D4681FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>